--- a/mainfile/运维/4月20日培训/告警配置.xlsx
+++ b/mainfile/运维/4月20日培训/告警配置.xlsx
@@ -2052,7 +2052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1">
+    <row r="2" ht="338.75" customHeight="1">
       <c r="A2" s="16" t="s">
         <v>5</v>
       </c>
